--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">T3: 16/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4: 17/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -101,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -122,6 +125,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,8 +176,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,10 +202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,10 +232,13 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -233,12 +250,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -250,12 +270,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -267,12 +290,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -284,12 +310,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -301,12 +330,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -319,11 +351,14 @@
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -335,12 +370,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -354,10 +392,13 @@
       <c r="E9" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -369,12 +410,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -386,12 +430,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -403,12 +450,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -420,12 +470,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -437,12 +490,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -454,12 +510,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -471,12 +530,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -488,12 +550,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -505,12 +570,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -522,12 +590,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">SUM(B2:B19)</f>
@@ -544,6 +615,10 @@
       <c r="E20" s="0" t="n">
         <f aca="false">SUM(E2:E19)</f>
         <v>8</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUM(F2:F19)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">T4: 17/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4: 18/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -202,10 +205,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,10 +238,13 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -253,12 +259,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -274,11 +283,14 @@
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -293,12 +305,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -313,12 +328,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -333,12 +351,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -354,11 +375,14 @@
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -373,12 +397,15 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -395,10 +422,13 @@
       <c r="F9" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -413,12 +443,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -433,12 +466,15 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -453,12 +489,15 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -473,12 +512,15 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -493,12 +535,15 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -513,12 +558,15 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -533,12 +581,15 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -553,12 +604,15 @@
         <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -573,12 +627,15 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -593,12 +650,15 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">SUM(B2:B19)</f>
@@ -619,6 +679,10 @@
       <c r="F20" s="0" t="n">
         <f aca="false">SUM(F2:F19)</f>
         <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G2:G19)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Departamento</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>T6: 20/3/2020</t>
+  </si>
+  <si>
+    <t>T7: 21/3/2020</t>
   </si>
   <si>
     <t>Atlantida</t>
@@ -125,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -482,7 +486,6 @@
     <col customWidth="1" min="3" max="3" width="13.38"/>
     <col customWidth="1" min="4" max="7" width="11.5"/>
     <col customWidth="1" min="8" max="8" width="11.13"/>
-    <col customWidth="1" min="9" max="11" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -510,10 +513,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1.0</v>
@@ -534,12 +540,15 @@
         <v>1.0</v>
       </c>
       <c r="H2">
+        <v>1.0</v>
+      </c>
+      <c r="I2">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -562,10 +571,13 @@
       <c r="H3">
         <v>2.0</v>
       </c>
+      <c r="I3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -586,12 +598,15 @@
         <v>0.0</v>
       </c>
       <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -612,12 +627,15 @@
         <v>0.0</v>
       </c>
       <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -638,12 +656,15 @@
         <v>0.0</v>
       </c>
       <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -666,10 +687,13 @@
       <c r="H7" s="1">
         <v>7.0</v>
       </c>
+      <c r="I7" s="2">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.0</v>
@@ -683,19 +707,22 @@
       <c r="E8">
         <v>0.0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1.0</v>
@@ -718,10 +745,13 @@
       <c r="H9" s="1">
         <v>14.0</v>
       </c>
+      <c r="I9" s="1">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -742,12 +772,15 @@
         <v>0.0</v>
       </c>
       <c r="H10">
+        <v>0.0</v>
+      </c>
+      <c r="I10">
         <v>0.0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -768,12 +801,15 @@
         <v>0.0</v>
       </c>
       <c r="H11">
+        <v>0.0</v>
+      </c>
+      <c r="I11">
         <v>0.0</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0.0</v>
@@ -794,12 +830,15 @@
         <v>0.0</v>
       </c>
       <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="I12">
         <v>0.0</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -820,12 +859,15 @@
         <v>0.0</v>
       </c>
       <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="I13">
         <v>0.0</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0.0</v>
@@ -846,12 +888,15 @@
         <v>0.0</v>
       </c>
       <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="I14">
         <v>0.0</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0.0</v>
@@ -872,12 +917,15 @@
         <v>0.0</v>
       </c>
       <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="I15">
         <v>0.0</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0.0</v>
@@ -898,12 +946,15 @@
         <v>0.0</v>
       </c>
       <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="I16">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0.0</v>
@@ -924,12 +975,15 @@
         <v>0.0</v>
       </c>
       <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="I17">
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0.0</v>
@@ -950,12 +1004,15 @@
         <v>0.0</v>
       </c>
       <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="I18">
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0.0</v>
@@ -976,12 +1033,15 @@
         <v>0.0</v>
       </c>
       <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="I19">
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="str">
         <f>SUM(B2:B19)</f>
@@ -992,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ref="D20:H20" si="1">SUM(D2:D19)</f>
+        <f t="shared" ref="D20:I20" si="1">SUM(D2:D19)</f>
         <v>6</v>
       </c>
       <c r="E20" t="str">
@@ -1010,6 +1070,10 @@
       <c r="H20" t="str">
         <f t="shared" si="1"/>
         <v>24</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">T8: 22/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T9: 24/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10: 25/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -116,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -142,6 +148,14 @@
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -195,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,11 +218,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,10 +251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,7 +267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -280,10 +302,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -310,12 +338,18 @@
         <v>1</v>
       </c>
       <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -344,10 +378,16 @@
       <c r="J3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -375,11 +415,17 @@
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -406,12 +452,18 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -438,12 +490,18 @@
         <v>0</v>
       </c>
       <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -472,10 +530,16 @@
       <c r="J7" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -489,25 +553,31 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -530,16 +600,22 @@
       <c r="H9" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="4" t="n">
         <v>14</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -566,12 +642,18 @@
         <v>0</v>
       </c>
       <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -598,12 +680,18 @@
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -630,12 +718,18 @@
         <v>0</v>
       </c>
       <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -662,12 +756,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -695,11 +795,17 @@
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -726,12 +832,18 @@
         <v>0</v>
       </c>
       <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -758,12 +870,18 @@
         <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -790,12 +908,18 @@
         <v>0</v>
       </c>
       <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -822,12 +946,18 @@
         <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -854,12 +984,18 @@
         <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="str">
         <f aca="false">SUM(B2:B19)</f>
@@ -896,6 +1032,14 @@
       <c r="J20" s="0" t="n">
         <f aca="false">SUM(J2:J19)</f>
         <v>27</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K2:K19)</f>
+        <v>36</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">SUM(L2:L19)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -254,7 +254,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="L20" s="0" t="n">
         <f aca="false">SUM(L2:L19)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">T10: 25/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11: 26/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -251,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +271,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -308,10 +313,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -344,12 +352,15 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -384,10 +395,13 @@
       <c r="L3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -422,10 +436,13 @@
       <c r="L4" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M4" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -458,12 +475,15 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -496,12 +516,15 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -536,10 +559,13 @@
       <c r="L7" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="M7" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -572,12 +598,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -612,10 +641,13 @@
       <c r="L9" s="4" t="n">
         <v>16</v>
       </c>
+      <c r="M9" s="4" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -648,12 +680,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -686,12 +721,15 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -724,12 +762,15 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -762,12 +803,15 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -800,12 +844,15 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -838,12 +885,15 @@
         <v>0</v>
       </c>
       <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -876,12 +926,15 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -914,12 +967,15 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -952,12 +1008,15 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -992,10 +1051,13 @@
       <c r="L19" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="str">
         <f aca="false">SUM(B2:B19)</f>
@@ -1040,6 +1102,10 @@
       <c r="L20" s="0" t="n">
         <f aca="false">SUM(L2:L19)</f>
         <v>52</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(M2:M19)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">T11: 26/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12: 27/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -212,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,6 +240,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -254,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,7 +280,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -316,10 +324,13 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -355,12 +366,15 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -396,12 +410,15 @@
         <v>2</v>
       </c>
       <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -439,10 +456,13 @@
       <c r="M4" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -478,12 +498,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -519,12 +542,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -562,10 +588,13 @@
       <c r="M7" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="N7" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -601,12 +630,15 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -644,10 +676,13 @@
       <c r="M9" s="4" t="n">
         <v>31</v>
       </c>
+      <c r="N9" s="4" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -683,12 +718,15 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -724,12 +762,15 @@
         <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -765,12 +806,15 @@
         <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -806,12 +850,15 @@
         <v>0</v>
       </c>
       <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -848,11 +895,14 @@
       </c>
       <c r="M14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -888,12 +938,15 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -929,12 +982,15 @@
         <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -970,12 +1026,15 @@
         <v>0</v>
       </c>
       <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1011,12 +1070,15 @@
         <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1052,18 +1114,21 @@
         <v>2</v>
       </c>
       <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="0" t="str">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="str">
         <f aca="false">SUM(B2:B19)</f>
         <v>2</v>
       </c>
-      <c r="C20" s="0" t="str">
+      <c r="C20" s="6" t="str">
         <f aca="false">SUM(C1:C19)</f>
         <v>3</v>
       </c>
@@ -1106,6 +1171,10 @@
       <c r="M20" s="0" t="n">
         <f aca="false">SUM(M2:M19)</f>
         <v>67</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">SUM(N2:N19)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -263,8 +263,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">T12: 27/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T13: 29/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -261,10 +264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,7 +284,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -327,10 +331,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -369,12 +376,15 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -413,12 +423,15 @@
         <v>2</v>
       </c>
       <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -459,10 +472,13 @@
       <c r="N4" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="O4" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -501,12 +517,15 @@
         <v>0</v>
       </c>
       <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -545,12 +564,15 @@
         <v>0</v>
       </c>
       <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -591,10 +613,13 @@
       <c r="N7" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="O7" s="1" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -633,12 +658,15 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -679,10 +707,13 @@
       <c r="N9" s="4" t="n">
         <v>32</v>
       </c>
+      <c r="O9" s="4" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -721,12 +752,15 @@
         <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -765,12 +799,15 @@
         <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -809,12 +846,15 @@
         <v>0</v>
       </c>
       <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -853,12 +893,15 @@
         <v>0</v>
       </c>
       <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -899,10 +942,13 @@
       <c r="N14" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="O14" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -941,12 +987,15 @@
         <v>0</v>
       </c>
       <c r="N15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -985,12 +1034,15 @@
         <v>0</v>
       </c>
       <c r="N16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1030,11 +1082,14 @@
       </c>
       <c r="N17" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1073,12 +1128,15 @@
         <v>0</v>
       </c>
       <c r="N18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1117,12 +1175,15 @@
         <v>2</v>
       </c>
       <c r="N19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6" t="str">
         <f aca="false">SUM(B2:B19)</f>
@@ -1175,6 +1236,10 @@
       <c r="N20" s="0" t="n">
         <f aca="false">SUM(N2:N19)</f>
         <v>95</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">SUM(O2:O19)</f>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">T13: 29/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14: 30/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -264,10 +267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,7 +288,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -334,10 +338,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -379,12 +386,15 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -426,12 +436,15 @@
         <v>2</v>
       </c>
       <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -475,10 +488,13 @@
       <c r="O4" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="P4" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -520,12 +536,15 @@
         <v>0</v>
       </c>
       <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -567,12 +586,15 @@
         <v>0</v>
       </c>
       <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -616,10 +638,13 @@
       <c r="O7" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="P7" s="1" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -661,12 +686,15 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -710,10 +738,13 @@
       <c r="O9" s="4" t="n">
         <v>37</v>
       </c>
+      <c r="P9" s="4" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -755,12 +786,15 @@
         <v>0</v>
       </c>
       <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -802,12 +836,15 @@
         <v>0</v>
       </c>
       <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -849,12 +886,15 @@
         <v>0</v>
       </c>
       <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -896,12 +936,15 @@
         <v>0</v>
       </c>
       <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -945,10 +988,13 @@
       <c r="O14" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="P14" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -990,12 +1036,15 @@
         <v>0</v>
       </c>
       <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1037,12 +1086,15 @@
         <v>0</v>
       </c>
       <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1084,12 +1136,15 @@
         <v>0</v>
       </c>
       <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1131,12 +1186,15 @@
         <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1178,12 +1236,15 @@
         <v>2</v>
       </c>
       <c r="O19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="str">
         <f aca="false">SUM(B2:B19)</f>
@@ -1240,6 +1301,10 @@
       <c r="O20" s="0" t="n">
         <f aca="false">SUM(O2:O19)</f>
         <v>139</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">SUM(P2:P19)</f>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">T14: 30/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15: 2/4/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -267,10 +270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,7 +292,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -341,10 +345,13 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -390,11 +397,14 @@
       </c>
       <c r="P2" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -439,12 +449,15 @@
         <v>2</v>
       </c>
       <c r="P3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -491,10 +504,13 @@
       <c r="P4" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="Q4" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -539,12 +555,15 @@
         <v>0</v>
       </c>
       <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -589,12 +608,15 @@
         <v>0</v>
       </c>
       <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -641,10 +663,13 @@
       <c r="P7" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="Q7" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -689,12 +714,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -741,10 +769,13 @@
       <c r="P9" s="4" t="n">
         <v>37</v>
       </c>
+      <c r="Q9" s="4" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -789,12 +820,15 @@
         <v>0</v>
       </c>
       <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -839,12 +873,15 @@
         <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -889,12 +926,15 @@
         <v>0</v>
       </c>
       <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -939,12 +979,15 @@
         <v>0</v>
       </c>
       <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -991,10 +1034,13 @@
       <c r="P14" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="Q14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1039,12 +1085,15 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1089,12 +1138,15 @@
         <v>0</v>
       </c>
       <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1140,11 +1192,14 @@
       </c>
       <c r="P17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1189,12 +1244,15 @@
         <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1240,11 +1298,14 @@
       </c>
       <c r="P19" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="str">
         <f aca="false">SUM(B2:B19)</f>
@@ -1305,6 +1366,10 @@
       <c r="P20" s="0" t="n">
         <f aca="false">SUM(P2:P19)</f>
         <v>141</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">SUM(Q2:Q19)</f>
+        <v>219</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">T15: 2/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16: 3/4/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -270,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +296,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -348,10 +352,13 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -401,10 +408,13 @@
       <c r="Q2" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="R2" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -452,12 +462,15 @@
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -507,10 +520,13 @@
       <c r="Q4" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="R4" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -558,12 +574,15 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -611,12 +630,15 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -655,21 +677,24 @@
         <v>24</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="R7" s="1" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -717,12 +742,15 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -758,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>32</v>
@@ -770,12 +798,15 @@
         <v>37</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -823,12 +854,15 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -876,12 +910,15 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -929,12 +966,15 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -982,12 +1022,15 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1037,10 +1080,13 @@
       <c r="Q14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="R14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1088,12 +1134,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1141,12 +1190,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1196,10 +1248,13 @@
       <c r="Q17" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="R17" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1247,12 +1302,15 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1291,27 +1349,30 @@
         <v>2</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="6" t="str">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <f aca="false">SUM(B2:B19)</f>
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="6" t="n">
         <f aca="false">SUM(C1:C19)</f>
         <v>3</v>
       </c>
@@ -1353,7 +1414,7 @@
       </c>
       <c r="M20" s="0" t="n">
         <f aca="false">SUM(M2:M19)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">SUM(N2:N19)</f>
@@ -1369,7 +1430,11 @@
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="false">SUM(Q2:Q19)</f>
-        <v>219</v>
+        <v>222</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">SUM(R2:R19)</f>
+        <v>264</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">T16: 3/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T17: 5/4/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -273,10 +276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,8 +299,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -355,10 +359,13 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -411,10 +418,13 @@
       <c r="R2" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="S2" s="2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -465,12 +475,15 @@
         <v>2</v>
       </c>
       <c r="R3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -523,10 +536,13 @@
       <c r="R4" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="S4" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -578,11 +594,14 @@
       </c>
       <c r="R5" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -634,11 +653,14 @@
       </c>
       <c r="R6" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -691,10 +713,13 @@
       <c r="R7" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="S7" s="1" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -745,12 +770,15 @@
         <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -803,10 +831,13 @@
       <c r="R9" s="4" t="n">
         <v>45</v>
       </c>
+      <c r="S9" s="4" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -857,12 +888,15 @@
         <v>0</v>
       </c>
       <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -913,12 +947,15 @@
         <v>0</v>
       </c>
       <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -969,12 +1006,15 @@
         <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1025,12 +1065,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1083,10 +1126,13 @@
       <c r="R14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="S14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1137,12 +1183,15 @@
         <v>0</v>
       </c>
       <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1193,12 +1242,15 @@
         <v>0</v>
       </c>
       <c r="R16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1251,10 +1303,13 @@
       <c r="R17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="S17" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1305,12 +1360,15 @@
         <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1363,10 +1421,13 @@
       <c r="R19" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="S19" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">SUM(B2:B19)</f>
@@ -1435,6 +1496,10 @@
       <c r="R20" s="0" t="n">
         <f aca="false">SUM(R2:R19)</f>
         <v>264</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">SUM(S2:S19)</f>
+        <v>298</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">T17: 5/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T18: 6/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T19: 7/4/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -276,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
+      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,7 +307,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -362,10 +370,16 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -421,10 +435,16 @@
       <c r="S2" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="T2" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -478,12 +498,18 @@
         <v>2</v>
       </c>
       <c r="S3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -539,10 +565,16 @@
       <c r="S4" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="T4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -597,11 +629,17 @@
       </c>
       <c r="S5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -655,12 +693,18 @@
         <v>0</v>
       </c>
       <c r="S6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -716,10 +760,16 @@
       <c r="S7" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="T7" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -773,12 +823,18 @@
         <v>0</v>
       </c>
       <c r="S8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -834,10 +890,16 @@
       <c r="S9" s="4" t="n">
         <v>47</v>
       </c>
+      <c r="T9" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -891,12 +953,18 @@
         <v>0</v>
       </c>
       <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -950,12 +1018,18 @@
         <v>0</v>
       </c>
       <c r="S11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1009,12 +1083,18 @@
         <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1068,12 +1148,18 @@
         <v>1</v>
       </c>
       <c r="S13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1129,10 +1215,16 @@
       <c r="S14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="T14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1186,12 +1278,18 @@
         <v>0</v>
       </c>
       <c r="S15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1245,12 +1343,18 @@
         <v>0</v>
       </c>
       <c r="S16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1306,10 +1410,16 @@
       <c r="S17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="T17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1363,12 +1473,18 @@
         <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1424,10 +1540,16 @@
       <c r="S19" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="T19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">SUM(B2:B19)</f>
@@ -1500,6 +1622,14 @@
       <c r="S20" s="0" t="n">
         <f aca="false">SUM(S2:S19)</f>
         <v>298</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">SUM(T2:T19)</f>
+        <v>305</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">SUM(U2:U19)</f>
+        <v>312</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">T19: 7/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T20: 8/4/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -282,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
+      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,7 +312,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -376,10 +380,13 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -441,10 +448,13 @@
       <c r="U2" s="2" t="n">
         <v>16</v>
       </c>
+      <c r="V2" s="2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -504,12 +514,15 @@
         <v>2</v>
       </c>
       <c r="U3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -571,10 +584,13 @@
       <c r="U4" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="V4" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -634,12 +650,15 @@
         <v>2</v>
       </c>
       <c r="U5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -699,12 +718,15 @@
         <v>1</v>
       </c>
       <c r="U6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -766,10 +788,13 @@
       <c r="U7" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="V7" s="1" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -829,12 +854,15 @@
         <v>0</v>
       </c>
       <c r="U8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -896,10 +924,13 @@
       <c r="U9" s="4" t="n">
         <v>54</v>
       </c>
+      <c r="V9" s="4" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -959,12 +990,15 @@
         <v>0</v>
       </c>
       <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1024,12 +1058,15 @@
         <v>0</v>
       </c>
       <c r="U11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1089,12 +1126,15 @@
         <v>0</v>
       </c>
       <c r="U12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1154,12 +1194,15 @@
         <v>1</v>
       </c>
       <c r="U13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1221,10 +1264,13 @@
       <c r="U14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="V14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1284,12 +1330,15 @@
         <v>0</v>
       </c>
       <c r="U15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1349,12 +1398,15 @@
         <v>0</v>
       </c>
       <c r="U16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1416,10 +1468,13 @@
       <c r="U17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="V17" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1479,12 +1534,15 @@
         <v>0</v>
       </c>
       <c r="U18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1546,10 +1604,13 @@
       <c r="U19" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="V19" s="5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">SUM(B2:B19)</f>
@@ -1630,6 +1691,10 @@
       <c r="U20" s="0" t="n">
         <f aca="false">SUM(U2:U19)</f>
         <v>312</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">SUM(V2:V19)</f>
+        <v>343</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19History.xlsx
+++ b/COVID19History.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">T20: 8/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T21: 9/4/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Atlantida</t>
@@ -285,10 +288,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
+      <selection pane="topLeft" activeCell="W20" activeCellId="0" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,7 +316,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -383,10 +387,13 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -451,10 +458,13 @@
       <c r="V2" s="2" t="n">
         <v>16</v>
       </c>
+      <c r="W2" s="2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -517,12 +527,15 @@
         <v>2</v>
       </c>
       <c r="V3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -587,10 +600,13 @@
       <c r="V4" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="W4" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -653,12 +669,15 @@
         <v>2</v>
       </c>
       <c r="V5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -721,12 +740,15 @@
         <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -791,10 +813,13 @@
       <c r="V7" s="1" t="n">
         <v>226</v>
       </c>
+      <c r="W7" s="1" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -857,12 +882,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -927,10 +955,13 @@
       <c r="V9" s="4" t="n">
         <v>54</v>
       </c>
+      <c r="W9" s="4" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -993,12 +1024,15 @@
         <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1061,12 +1095,15 @@
         <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1129,12 +1166,15 @@
         <v>0</v>
       </c>
       <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1197,12 +1237,15 @@
         <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1267,10 +1310,13 @@
       <c r="V14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="W14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1333,12 +1379,15 @@
         <v>0</v>
       </c>
       <c r="V15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1401,12 +1450,15 @@
         <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1471,10 +1523,13 @@
       <c r="V17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="W17" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1537,12 +1592,15 @@
         <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1607,10 +1665,13 @@
       <c r="V19" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="W19" s="5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="n">
         <f aca="false">SUM(B2:B19)</f>
@@ -1695,6 +1756,10 @@
       <c r="V20" s="0" t="n">
         <f aca="false">SUM(V2:V19)</f>
         <v>343</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">SUM(W2:W19)</f>
+        <v>382</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
